--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value844.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value844.xlsx
@@ -354,7 +354,7 @@
         <v>1.439696548441337</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.575937796038376</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value844.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value844.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6297821131896373</v>
+        <v>0.7965988516807556</v>
       </c>
       <c r="B1">
-        <v>1.439696548441337</v>
+        <v>1.16258704662323</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.5346839427948</v>
       </c>
       <c r="D1">
-        <v>2.575937796038376</v>
+        <v>3.872872114181519</v>
       </c>
       <c r="E1">
-        <v>1.620317635673825</v>
+        <v>1.627381801605225</v>
       </c>
     </row>
   </sheetData>
